--- a/7sem/RIS (Тимонович)/Lab1/Книга1.xlsx
+++ b/7sem/RIS (Тимонович)/Lab1/Книга1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFile\Univer\7sem\Распределённые и обланые системы\RIS_Lab1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9555" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,12 +81,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -101,9 +109,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -119,7 +126,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Лист1!$B$1:$H$1</c:f>
@@ -157,29 +166,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3404</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>659</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2124</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2285</c:v>
+                  <c:v>1258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2458</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2602</c:v>
+                  <c:v>1423</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2441</c:v>
+                  <c:v>1643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C06-4AE1-B6F8-CED2766E2AB6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -189,10 +204,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:smooth val="0"/>
         <c:axId val="71346048"/>
         <c:axId val="71352320"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="71346048"/>
         <c:scaling>
@@ -323,7 +338,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +373,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,12 +585,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,82 +616,82 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>385</v>
+        <v>1125</v>
       </c>
       <c r="C2">
-        <v>2773</v>
+        <v>3038</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>6030</v>
       </c>
       <c r="E2">
-        <v>2822</v>
+        <v>8043</v>
       </c>
       <c r="F2">
-        <v>345</v>
+        <v>10024</v>
       </c>
       <c r="G2">
-        <v>150</v>
+        <v>12014</v>
       </c>
       <c r="H2">
-        <v>276</v>
+        <v>14041</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3404</v>
+        <v>261</v>
       </c>
       <c r="C4">
-        <v>659</v>
+        <v>391</v>
       </c>
       <c r="D4">
-        <v>2124</v>
+        <v>719</v>
       </c>
       <c r="E4">
-        <v>2285</v>
+        <v>1258</v>
       </c>
       <c r="F4">
-        <v>2458</v>
+        <v>1353</v>
       </c>
       <c r="G4">
-        <v>2602</v>
+        <v>1423</v>
       </c>
       <c r="H4">
-        <v>2441</v>
+        <v>1643</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -703,7 +718,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
